--- a/12/2/Índices de volatilidad 2021 - Diaria.xlsx
+++ b/12/2/Índices de volatilidad 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="174">
   <si>
     <t>Serie</t>
   </si>
@@ -464,6 +464,78 @@
   </si>
   <si>
     <t>02-08-2021</t>
+  </si>
+  <si>
+    <t>03-08-2021</t>
+  </si>
+  <si>
+    <t>04-08-2021</t>
+  </si>
+  <si>
+    <t>05-08-2021</t>
+  </si>
+  <si>
+    <t>06-08-2021</t>
+  </si>
+  <si>
+    <t>09-08-2021</t>
+  </si>
+  <si>
+    <t>10-08-2021</t>
+  </si>
+  <si>
+    <t>11-08-2021</t>
+  </si>
+  <si>
+    <t>12-08-2021</t>
+  </si>
+  <si>
+    <t>13-08-2021</t>
+  </si>
+  <si>
+    <t>16-08-2021</t>
+  </si>
+  <si>
+    <t>17-08-2021</t>
+  </si>
+  <si>
+    <t>18-08-2021</t>
+  </si>
+  <si>
+    <t>19-08-2021</t>
+  </si>
+  <si>
+    <t>20-08-2021</t>
+  </si>
+  <si>
+    <t>23-08-2021</t>
+  </si>
+  <si>
+    <t>24-08-2021</t>
+  </si>
+  <si>
+    <t>25-08-2021</t>
+  </si>
+  <si>
+    <t>26-08-2021</t>
+  </si>
+  <si>
+    <t>27-08-2021</t>
+  </si>
+  <si>
+    <t>30-08-2021</t>
+  </si>
+  <si>
+    <t>31-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
+  </si>
+  <si>
+    <t>02-09-2021</t>
+  </si>
+  <si>
+    <t>03-09-2021</t>
   </si>
 </sst>
 </file>
@@ -821,7 +893,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C148"/>
+  <dimension ref="A1:C172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2445,8 +2517,275 @@
       <c r="A148" t="s">
         <v>149</v>
       </c>
+      <c r="B148">
+        <v>64.29000000000001</v>
+      </c>
       <c r="C148">
-        <v>18.15</v>
+        <v>19.46</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" t="s">
+        <v>150</v>
+      </c>
+      <c r="B149">
+        <v>65.42</v>
+      </c>
+      <c r="C149">
+        <v>18.04</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" t="s">
+        <v>151</v>
+      </c>
+      <c r="B150">
+        <v>62.67</v>
+      </c>
+      <c r="C150">
+        <v>17.97</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" t="s">
+        <v>152</v>
+      </c>
+      <c r="B151">
+        <v>63.57</v>
+      </c>
+      <c r="C151">
+        <v>17.28</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" t="s">
+        <v>153</v>
+      </c>
+      <c r="B152">
+        <v>62.64</v>
+      </c>
+      <c r="C152">
+        <v>16.15</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" t="s">
+        <v>154</v>
+      </c>
+      <c r="B153">
+        <v>65.72</v>
+      </c>
+      <c r="C153">
+        <v>16.72</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" t="s">
+        <v>155</v>
+      </c>
+      <c r="B154">
+        <v>66.55</v>
+      </c>
+      <c r="C154">
+        <v>16.79</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" t="s">
+        <v>156</v>
+      </c>
+      <c r="B155">
+        <v>60.66</v>
+      </c>
+      <c r="C155">
+        <v>16.06</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" t="s">
+        <v>157</v>
+      </c>
+      <c r="B156">
+        <v>57.39</v>
+      </c>
+      <c r="C156">
+        <v>15.59</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" t="s">
+        <v>158</v>
+      </c>
+      <c r="B157">
+        <v>55.45</v>
+      </c>
+      <c r="C157">
+        <v>15.45</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" t="s">
+        <v>159</v>
+      </c>
+      <c r="B158">
+        <v>59.4</v>
+      </c>
+      <c r="C158">
+        <v>16.12</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" t="s">
+        <v>160</v>
+      </c>
+      <c r="B159">
+        <v>60.28</v>
+      </c>
+      <c r="C159">
+        <v>17.91</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" t="s">
+        <v>161</v>
+      </c>
+      <c r="B160">
+        <v>58.05</v>
+      </c>
+      <c r="C160">
+        <v>21.57</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" t="s">
+        <v>162</v>
+      </c>
+      <c r="B161">
+        <v>59.38</v>
+      </c>
+      <c r="C161">
+        <v>21.67</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" t="s">
+        <v>163</v>
+      </c>
+      <c r="B162">
+        <v>59.95</v>
+      </c>
+      <c r="C162">
+        <v>18.56</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" t="s">
+        <v>164</v>
+      </c>
+      <c r="B163">
+        <v>62.23</v>
+      </c>
+      <c r="C163">
+        <v>17.15</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" t="s">
+        <v>165</v>
+      </c>
+      <c r="B164">
+        <v>63.03</v>
+      </c>
+      <c r="C164">
+        <v>17.22</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" t="s">
+        <v>166</v>
+      </c>
+      <c r="B165">
+        <v>64.51000000000001</v>
+      </c>
+      <c r="C165">
+        <v>16.79</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" t="s">
+        <v>167</v>
+      </c>
+      <c r="B166">
+        <v>63.41</v>
+      </c>
+      <c r="C166">
+        <v>18.84</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" t="s">
+        <v>168</v>
+      </c>
+      <c r="B167">
+        <v>57.98</v>
+      </c>
+      <c r="C167">
+        <v>16.39</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" t="s">
+        <v>169</v>
+      </c>
+      <c r="B168">
+        <v>60.14</v>
+      </c>
+      <c r="C168">
+        <v>16.19</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" t="s">
+        <v>170</v>
+      </c>
+      <c r="B169">
+        <v>59.54</v>
+      </c>
+      <c r="C169">
+        <v>16.48</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" t="s">
+        <v>171</v>
+      </c>
+      <c r="B170">
+        <v>58.09</v>
+      </c>
+      <c r="C170">
+        <v>16.11</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" t="s">
+        <v>172</v>
+      </c>
+      <c r="B171">
+        <v>55.8</v>
+      </c>
+      <c r="C171">
+        <v>16.41</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" t="s">
+        <v>173</v>
+      </c>
+      <c r="B172">
+        <v>53.26</v>
+      </c>
+      <c r="C172">
+        <v>16.41</v>
       </c>
     </row>
   </sheetData>

--- a/12/2/Índices de volatilidad 2021 - Diaria.xlsx
+++ b/12/2/Índices de volatilidad 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="179">
   <si>
     <t>Serie</t>
   </si>
@@ -536,6 +536,21 @@
   </si>
   <si>
     <t>03-09-2021</t>
+  </si>
+  <si>
+    <t>07-09-2021</t>
+  </si>
+  <si>
+    <t>08-09-2021</t>
+  </si>
+  <si>
+    <t>09-09-2021</t>
+  </si>
+  <si>
+    <t>10-09-2021</t>
+  </si>
+  <si>
+    <t>13-09-2021</t>
   </si>
 </sst>
 </file>
@@ -893,7 +908,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C172"/>
+  <dimension ref="A1:C177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2788,6 +2803,58 @@
         <v>16.41</v>
       </c>
     </row>
+    <row r="173" spans="1:3">
+      <c r="A173" t="s">
+        <v>174</v>
+      </c>
+      <c r="B173">
+        <v>57.05</v>
+      </c>
+      <c r="C173">
+        <v>18.14</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" t="s">
+        <v>175</v>
+      </c>
+      <c r="B174">
+        <v>57.02</v>
+      </c>
+      <c r="C174">
+        <v>17.96</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" t="s">
+        <v>176</v>
+      </c>
+      <c r="B175">
+        <v>52.61</v>
+      </c>
+      <c r="C175">
+        <v>18.8</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" t="s">
+        <v>177</v>
+      </c>
+      <c r="B176">
+        <v>51.73</v>
+      </c>
+      <c r="C176">
+        <v>20.95</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" t="s">
+        <v>178</v>
+      </c>
+      <c r="C177">
+        <v>19.2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/12/2/Índices de volatilidad 2021 - Diaria.xlsx
+++ b/12/2/Índices de volatilidad 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="184">
   <si>
     <t>Serie</t>
   </si>
@@ -551,6 +551,21 @@
   </si>
   <si>
     <t>13-09-2021</t>
+  </si>
+  <si>
+    <t>14-09-2021</t>
+  </si>
+  <si>
+    <t>15-09-2021</t>
+  </si>
+  <si>
+    <t>16-09-2021</t>
+  </si>
+  <si>
+    <t>17-09-2021</t>
+  </si>
+  <si>
+    <t>20-09-2021</t>
   </si>
 </sst>
 </file>
@@ -908,7 +923,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C177"/>
+  <dimension ref="A1:C182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2851,8 +2866,63 @@
       <c r="A177" t="s">
         <v>178</v>
       </c>
+      <c r="B177">
+        <v>53.1</v>
+      </c>
       <c r="C177">
-        <v>19.2</v>
+        <v>19.37</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" t="s">
+        <v>179</v>
+      </c>
+      <c r="B178">
+        <v>51.73</v>
+      </c>
+      <c r="C178">
+        <v>19.46</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" t="s">
+        <v>180</v>
+      </c>
+      <c r="B179">
+        <v>53.93</v>
+      </c>
+      <c r="C179">
+        <v>18.18</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" t="s">
+        <v>181</v>
+      </c>
+      <c r="B180">
+        <v>53.7</v>
+      </c>
+      <c r="C180">
+        <v>18.69</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" t="s">
+        <v>182</v>
+      </c>
+      <c r="B181">
+        <v>56.06</v>
+      </c>
+      <c r="C181">
+        <v>20.81</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" t="s">
+        <v>183</v>
+      </c>
+      <c r="C182">
+        <v>26.23</v>
       </c>
     </row>
   </sheetData>

--- a/12/2/Índices de volatilidad 2021 - Diaria.xlsx
+++ b/12/2/Índices de volatilidad 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="189">
   <si>
     <t>Serie</t>
   </si>
@@ -566,6 +566,21 @@
   </si>
   <si>
     <t>20-09-2021</t>
+  </si>
+  <si>
+    <t>21-09-2021</t>
+  </si>
+  <si>
+    <t>22-09-2021</t>
+  </si>
+  <si>
+    <t>23-09-2021</t>
+  </si>
+  <si>
+    <t>24-09-2021</t>
+  </si>
+  <si>
+    <t>27-09-2021</t>
   </si>
 </sst>
 </file>
@@ -923,7 +938,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C182"/>
+  <dimension ref="A1:C187"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2921,8 +2936,63 @@
       <c r="A182" t="s">
         <v>183</v>
       </c>
+      <c r="B182">
+        <v>59.58</v>
+      </c>
       <c r="C182">
-        <v>26.23</v>
+        <v>25.71</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" t="s">
+        <v>184</v>
+      </c>
+      <c r="B183">
+        <v>59.2</v>
+      </c>
+      <c r="C183">
+        <v>24.36</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" t="s">
+        <v>185</v>
+      </c>
+      <c r="B184">
+        <v>55.92</v>
+      </c>
+      <c r="C184">
+        <v>20.87</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" t="s">
+        <v>186</v>
+      </c>
+      <c r="B185">
+        <v>56.79</v>
+      </c>
+      <c r="C185">
+        <v>18.63</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" t="s">
+        <v>187</v>
+      </c>
+      <c r="B186">
+        <v>58.46</v>
+      </c>
+      <c r="C186">
+        <v>17.75</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" t="s">
+        <v>188</v>
+      </c>
+      <c r="C187">
+        <v>18.37</v>
       </c>
     </row>
   </sheetData>

--- a/12/2/Índices de volatilidad 2021 - Diaria.xlsx
+++ b/12/2/Índices de volatilidad 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="194">
   <si>
     <t>Serie</t>
   </si>
@@ -581,6 +581,21 @@
   </si>
   <si>
     <t>27-09-2021</t>
+  </si>
+  <si>
+    <t>28-09-2021</t>
+  </si>
+  <si>
+    <t>29-09-2021</t>
+  </si>
+  <si>
+    <t>30-09-2021</t>
+  </si>
+  <si>
+    <t>01-10-2021</t>
+  </si>
+  <si>
+    <t>04-10-2021</t>
   </si>
 </sst>
 </file>
@@ -938,7 +953,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C187"/>
+  <dimension ref="A1:C192"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2991,8 +3006,63 @@
       <c r="A187" t="s">
         <v>188</v>
       </c>
+      <c r="B187">
+        <v>60.5</v>
+      </c>
       <c r="C187">
-        <v>18.37</v>
+        <v>18.76</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" t="s">
+        <v>189</v>
+      </c>
+      <c r="B188">
+        <v>62.71</v>
+      </c>
+      <c r="C188">
+        <v>23.25</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" t="s">
+        <v>190</v>
+      </c>
+      <c r="B189">
+        <v>61.21</v>
+      </c>
+      <c r="C189">
+        <v>22.56</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" t="s">
+        <v>191</v>
+      </c>
+      <c r="B190">
+        <v>61.07</v>
+      </c>
+      <c r="C190">
+        <v>23.14</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" t="s">
+        <v>192</v>
+      </c>
+      <c r="B191">
+        <v>57.38</v>
+      </c>
+      <c r="C191">
+        <v>21.15</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" t="s">
+        <v>193</v>
+      </c>
+      <c r="C192">
+        <v>22.98</v>
       </c>
     </row>
   </sheetData>

--- a/12/2/Índices de volatilidad 2021 - Diaria.xlsx
+++ b/12/2/Índices de volatilidad 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="200">
   <si>
     <t>Serie</t>
   </si>
@@ -596,6 +596,24 @@
   </si>
   <si>
     <t>04-10-2021</t>
+  </si>
+  <si>
+    <t>05-10-2021</t>
+  </si>
+  <si>
+    <t>06-10-2021</t>
+  </si>
+  <si>
+    <t>07-10-2021</t>
+  </si>
+  <si>
+    <t>08-10-2021</t>
+  </si>
+  <si>
+    <t>11-10-2021</t>
+  </si>
+  <si>
+    <t>12-10-2021</t>
   </si>
 </sst>
 </file>
@@ -953,7 +971,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C192"/>
+  <dimension ref="A1:C198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3061,8 +3079,71 @@
       <c r="A192" t="s">
         <v>193</v>
       </c>
+      <c r="B192">
+        <v>60.61</v>
+      </c>
       <c r="C192">
-        <v>22.98</v>
+        <v>22.96</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" t="s">
+        <v>194</v>
+      </c>
+      <c r="B193">
+        <v>62.83</v>
+      </c>
+      <c r="C193">
+        <v>21.3</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" t="s">
+        <v>195</v>
+      </c>
+      <c r="B194">
+        <v>60.65</v>
+      </c>
+      <c r="C194">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" t="s">
+        <v>196</v>
+      </c>
+      <c r="B195">
+        <v>60.91</v>
+      </c>
+      <c r="C195">
+        <v>19.54</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" t="s">
+        <v>197</v>
+      </c>
+      <c r="B196">
+        <v>59.65</v>
+      </c>
+      <c r="C196">
+        <v>18.77</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" t="s">
+        <v>198</v>
+      </c>
+      <c r="C197">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" t="s">
+        <v>199</v>
+      </c>
+      <c r="C198">
+        <v>19.56</v>
       </c>
     </row>
   </sheetData>

--- a/12/2/Índices de volatilidad 2021 - Diaria.xlsx
+++ b/12/2/Índices de volatilidad 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="209">
   <si>
     <t>Serie</t>
   </si>
@@ -614,6 +614,33 @@
   </si>
   <si>
     <t>12-10-2021</t>
+  </si>
+  <si>
+    <t>13-10-2021</t>
+  </si>
+  <si>
+    <t>14-10-2021</t>
+  </si>
+  <si>
+    <t>15-10-2021</t>
+  </si>
+  <si>
+    <t>18-10-2021</t>
+  </si>
+  <si>
+    <t>19-10-2021</t>
+  </si>
+  <si>
+    <t>20-10-2021</t>
+  </si>
+  <si>
+    <t>21-10-2021</t>
+  </si>
+  <si>
+    <t>22-10-2021</t>
+  </si>
+  <si>
+    <t>25-10-2021</t>
   </si>
 </sst>
 </file>
@@ -971,7 +998,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C198"/>
+  <dimension ref="A1:C207"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3142,8 +3169,107 @@
       <c r="A198" t="s">
         <v>199</v>
       </c>
+      <c r="B198">
+        <v>62.95</v>
+      </c>
       <c r="C198">
-        <v>19.56</v>
+        <v>19.85</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" t="s">
+        <v>200</v>
+      </c>
+      <c r="B199">
+        <v>60.84</v>
+      </c>
+      <c r="C199">
+        <v>18.64</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" t="s">
+        <v>201</v>
+      </c>
+      <c r="B200">
+        <v>59.35</v>
+      </c>
+      <c r="C200">
+        <v>16.86</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" t="s">
+        <v>202</v>
+      </c>
+      <c r="B201">
+        <v>62.7</v>
+      </c>
+      <c r="C201">
+        <v>16.3</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" t="s">
+        <v>203</v>
+      </c>
+      <c r="B202">
+        <v>70.77</v>
+      </c>
+      <c r="C202">
+        <v>16.31</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" t="s">
+        <v>204</v>
+      </c>
+      <c r="B203">
+        <v>68.25</v>
+      </c>
+      <c r="C203">
+        <v>15.7</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" t="s">
+        <v>205</v>
+      </c>
+      <c r="B204">
+        <v>65.47</v>
+      </c>
+      <c r="C204">
+        <v>15.49</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" t="s">
+        <v>206</v>
+      </c>
+      <c r="B205">
+        <v>69.42</v>
+      </c>
+      <c r="C205">
+        <v>15.01</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" t="s">
+        <v>207</v>
+      </c>
+      <c r="B206">
+        <v>72.04000000000001</v>
+      </c>
+      <c r="C206">
+        <v>15.43</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" t="s">
+        <v>208</v>
+      </c>
+      <c r="C207">
+        <v>15.97</v>
       </c>
     </row>
   </sheetData>

--- a/12/2/Índices de volatilidad 2021 - Diaria.xlsx
+++ b/12/2/Índices de volatilidad 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="215">
   <si>
     <t>Serie</t>
   </si>
@@ -641,6 +641,24 @@
   </si>
   <si>
     <t>25-10-2021</t>
+  </si>
+  <si>
+    <t>26-10-2021</t>
+  </si>
+  <si>
+    <t>27-10-2021</t>
+  </si>
+  <si>
+    <t>28-10-2021</t>
+  </si>
+  <si>
+    <t>29-10-2021</t>
+  </si>
+  <si>
+    <t>01-11-2021</t>
+  </si>
+  <si>
+    <t>02-11-2021</t>
   </si>
 </sst>
 </file>
@@ -998,7 +1016,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C207"/>
+  <dimension ref="A1:C213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3268,8 +3286,74 @@
       <c r="A207" t="s">
         <v>208</v>
       </c>
+      <c r="B207">
+        <v>68.95999999999999</v>
+      </c>
       <c r="C207">
-        <v>15.97</v>
+        <v>15.24</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" t="s">
+        <v>209</v>
+      </c>
+      <c r="B208">
+        <v>66.7</v>
+      </c>
+      <c r="C208">
+        <v>15.98</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" t="s">
+        <v>210</v>
+      </c>
+      <c r="B209">
+        <v>70.06</v>
+      </c>
+      <c r="C209">
+        <v>16.98</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" t="s">
+        <v>211</v>
+      </c>
+      <c r="B210">
+        <v>71.95999999999999</v>
+      </c>
+      <c r="C210">
+        <v>16.53</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" t="s">
+        <v>212</v>
+      </c>
+      <c r="B211">
+        <v>75.45</v>
+      </c>
+      <c r="C211">
+        <v>16.26</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" t="s">
+        <v>213</v>
+      </c>
+      <c r="B212">
+        <v>78.34</v>
+      </c>
+      <c r="C212">
+        <v>16.41</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" t="s">
+        <v>214</v>
+      </c>
+      <c r="C213">
+        <v>16.42</v>
       </c>
     </row>
   </sheetData>

--- a/12/2/Índices de volatilidad 2021 - Diaria.xlsx
+++ b/12/2/Índices de volatilidad 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="219">
   <si>
     <t>Serie</t>
   </si>
@@ -659,6 +659,18 @@
   </si>
   <si>
     <t>02-11-2021</t>
+  </si>
+  <si>
+    <t>03-11-2021</t>
+  </si>
+  <si>
+    <t>04-11-2021</t>
+  </si>
+  <si>
+    <t>05-11-2021</t>
+  </si>
+  <si>
+    <t>08-11-2021</t>
   </si>
 </sst>
 </file>
@@ -1016,7 +1028,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C213"/>
+  <dimension ref="A1:C217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3352,8 +3364,52 @@
       <c r="A213" t="s">
         <v>214</v>
       </c>
+      <c r="B213">
+        <v>71.04000000000001</v>
+      </c>
       <c r="C213">
-        <v>16.42</v>
+        <v>16.03</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" t="s">
+        <v>215</v>
+      </c>
+      <c r="B214">
+        <v>71.22</v>
+      </c>
+      <c r="C214">
+        <v>15.1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" t="s">
+        <v>216</v>
+      </c>
+      <c r="B215">
+        <v>64.61</v>
+      </c>
+      <c r="C215">
+        <v>15.44</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" t="s">
+        <v>217</v>
+      </c>
+      <c r="B216">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="C216">
+        <v>16.48</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" t="s">
+        <v>218</v>
+      </c>
+      <c r="C217">
+        <v>16.68</v>
       </c>
     </row>
   </sheetData>
